--- a/src/test/java/Resources/Data/AKCUsers.xlsx
+++ b/src/test/java/Resources/Data/AKCUsers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/isthmus-AKC-Test 2/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A07E7-EC68-7F4E-94C1-685BF6E1BA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C306493-BC0B-914E-BD7D-79D56715E90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>password</t>
   </si>
@@ -39,10 +39,10 @@
     <t>cypreshill2*</t>
   </si>
   <si>
-    <t>cypreshill3*</t>
-  </si>
-  <si>
-    <t>sebas.viquez@guess.com</t>
+    <t>sebas.viquez+1@hotmail.com</t>
+  </si>
+  <si>
+    <t>sebas.viquez@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -413,19 +413,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -434,8 +436,9 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{CBD614C8-7CAB-904D-9873-AE768272560E}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{C4273925-CCEB-C045-85EC-2CA6B5DDDD77}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{364EA015-A0BB-894F-AF96-FEC0E550F8AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/test/java/Resources/Data/AKCUsers.xlsx
+++ b/src/test/java/Resources/Data/AKCUsers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/isthmus-AKC-Test 2/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C306493-BC0B-914E-BD7D-79D56715E90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F086F9-D2E2-6043-AE79-901E64FB01FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,16 +33,16 @@
     <t>username</t>
   </si>
   <si>
-    <t>sebas.viquez@hotmail.com</t>
-  </si>
-  <si>
-    <t>cypreshill2*</t>
-  </si>
-  <si>
-    <t>sebas.viquez+1@hotmail.com</t>
-  </si>
-  <si>
-    <t>sebas.viquez@gmail.com</t>
+    <t>CypresHill2*</t>
+  </si>
+  <si>
+    <t>sebas.viquez+5@hotmail.com</t>
+  </si>
+  <si>
+    <t>sebas.viquez+6@hotmail.com</t>
+  </si>
+  <si>
+    <t>sebas.viquez+3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -102,11 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -391,7 +390,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -410,26 +409,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/Resources/Data/AKCUsers.xlsx
+++ b/src/test/java/Resources/Data/AKCUsers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/isthmus-AKC-Test 2/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F086F9-D2E2-6043-AE79-901E64FB01FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC691B2A-E09A-C146-A469-AD2B879CA80D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,13 +36,13 @@
     <t>CypresHill2*</t>
   </si>
   <si>
-    <t>sebas.viquez+5@hotmail.com</t>
-  </si>
-  <si>
-    <t>sebas.viquez+6@hotmail.com</t>
-  </si>
-  <si>
     <t>sebas.viquez+3@gmail.com</t>
+  </si>
+  <si>
+    <t>sebas.viquez+41@gmail.com</t>
+  </si>
+  <si>
+    <t>sebas.viquez+39@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -433,9 +433,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{CBD614C8-7CAB-904D-9873-AE768272560E}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{C4273925-CCEB-C045-85EC-2CA6B5DDDD77}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{364EA015-A0BB-894F-AF96-FEC0E550F8AA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C4273925-CCEB-C045-85EC-2CA6B5DDDD77}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{364EA015-A0BB-894F-AF96-FEC0E550F8AA}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{D8D3BE42-DCCE-1143-9065-242858454BCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
